--- a/excel/03_排序和筛选.xlsx
+++ b/excel/03_排序和筛选.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9312859D-330C-4C62-A31F-62BD6E446285}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D08512B-D37C-40AB-817D-6E1A6D773547}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1328,6 +1328,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1337,16 +1346,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3399,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I5" sqref="I5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3411,7 +3411,7 @@
     <col min="2" max="2" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>39162</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>18982.847759558852</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>39200</v>
       </c>
@@ -3490,11 +3490,18 @@
       <c r="G5" s="10">
         <v>40893.083149311875</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="41" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>39200</v>
       </c>
@@ -3517,7 +3524,7 @@
         <v>22294.085220814908</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>39233</v>
       </c>
@@ -3540,7 +3547,7 @@
         <v>24318.374117613792</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>39246</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>20256.694699447638</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>39279</v>
       </c>
@@ -3586,7 +3593,7 @@
         <v>43537.557757683368</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>39339</v>
       </c>
@@ -3609,7 +3616,7 @@
         <v>22917.339613203356</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>39374</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>44258.364560249865</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>39406</v>
       </c>
@@ -3655,7 +3662,7 @@
         <v>92391.153643258687</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>39162</v>
       </c>
@@ -3678,7 +3685,7 @@
         <v>51700.030820578511</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>39200</v>
       </c>
@@ -3701,7 +3708,7 @@
         <v>50558.498384562939</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>39200</v>
       </c>
@@ -3724,7 +3731,7 @@
         <v>22115.228953458598</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>39233</v>
       </c>
@@ -3863,8 +3870,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I5:P5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3996,18 +4004,18 @@
       <c r="K3" s="18">
         <v>5921.51</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4041,16 +4049,16 @@
       <c r="K4" s="18">
         <v>600</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -4397,7 +4405,7 @@
   <dimension ref="A1:T286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:M15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4476,17 +4484,17 @@
         <v>14.8</v>
       </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
     </row>
     <row r="4" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -4507,15 +4515,15 @@
       <c r="F4" s="22">
         <v>20</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4538,12 +4546,12 @@
         <v>50</v>
       </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -4564,15 +4572,15 @@
       <c r="F6" s="22">
         <v>56</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4618,19 +4626,19 @@
       <c r="F8" s="22">
         <v>70</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4699,17 +4707,17 @@
       <c r="F11" s="22">
         <v>150</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -4760,12 +4768,12 @@
       <c r="F13" s="22">
         <v>258</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -4812,12 +4820,12 @@
       <c r="F15" s="22">
         <v>267.08</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -10240,16 +10248,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F286" xr:uid="{C923EF09-97BE-4FAA-AB7E-F226ECE79E1D}"/>
+  <autoFilter ref="A1:F286" xr:uid="{D758637A-7101-4C4F-A92B-62B99BC8AEA6}"/>
   <mergeCells count="8">
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="J3:T3"/>
+    <mergeCell ref="J5:O5"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="H8:R8"/>
     <mergeCell ref="H11:R11"/>
     <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="J3:T3"/>
-    <mergeCell ref="J5:O5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10312,15 +10320,15 @@
       <c r="F2" s="22">
         <v>5</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -10419,15 +10427,15 @@
       <c r="F6" s="22">
         <v>56</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -10448,13 +10456,13 @@
       <c r="F7" s="22">
         <v>65</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -10855,17 +10863,17 @@
       <c r="F20" s="22">
         <v>560</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -12270,15 +12278,15 @@
       <c r="F57" s="22">
         <v>200</v>
       </c>
-      <c r="H57" s="42" t="s">
+      <c r="H57" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="33"/>
